--- a/static/AS2.eg.Relationships.xlsx
+++ b/static/AS2.eg.Relationships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\08187U744\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhyan/Documents/Tasks/HTTP_API_Server/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727577F3-CB1E-4D01-8A68-764B7D25D4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6F0EF8-39FC-BA42-A3DA-E7BC96F0179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25380" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,6 +419,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -773,9 +774,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -905,7 +906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -967,7 +968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
